--- a/mytasks.xlsx
+++ b/mytasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\Desktop\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D6F951-81EA-4477-842F-29EA49AED8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A048199-277A-4529-9602-25B23FF669EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{212DFD29-CF70-444E-868B-3750A8C4E099}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>am/pm</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>pm</t>
-  </si>
-  <si>
-    <t>reminded?(do not fill this column)</t>
   </si>
   <si>
     <t>am</t>
@@ -430,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E64F97-9DD2-482E-A749-960D36288C1D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +442,7 @@
     <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,22 +452,19 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.22916666666666666</v>
       </c>
@@ -478,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.25</v>
       </c>
@@ -489,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.27083333333333331</v>
       </c>
@@ -500,10 +494,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.3125</v>
       </c>
@@ -511,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.375</v>
       </c>
@@ -522,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -533,29 +527,29 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/mytasks.xlsx
+++ b/mytasks.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITYA\Desktop\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A048199-277A-4529-9602-25B23FF669EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD05260D-4253-4088-A4F3-7BE3CA1B2FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{212DFD29-CF70-444E-868B-3750A8C4E099}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA93DFE7-38D3-4E07-9D26-C7E623A61273}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+  <si>
+    <t>time(hours:mins)(12 hour time)</t>
+  </si>
   <si>
     <t>am/pm</t>
   </si>
@@ -33,18 +44,18 @@
     <t>task</t>
   </si>
   <si>
-    <t>time(hours:mins)(12 hour time)</t>
+    <t>reminded?</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>Eat preworkout food</t>
   </si>
   <si>
     <t>pm</t>
   </si>
   <si>
-    <t>am</t>
-  </si>
-  <si>
-    <t>Eat preworkout food</t>
-  </si>
-  <si>
     <t>Eat postworkout food</t>
   </si>
   <si>
@@ -57,6 +68,9 @@
     <t>Coding: DSA</t>
   </si>
   <si>
+    <t>Dinner</t>
+  </si>
+  <si>
     <t>CP ques if possible</t>
   </si>
   <si>
@@ -64,9 +78,6 @@
   </si>
   <si>
     <t>Sleep</t>
-  </si>
-  <si>
-    <t>Dinner</t>
   </si>
 </sst>
 </file>
@@ -102,13 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,131 +434,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E64F97-9DD2-482E-A749-960D36288C1D}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F97DC06-2AF3-4A29-BCA8-04B0C29A1895}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="98" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>0.25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>0.3125</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>0.375</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
